--- a/Project2/sprint_backlogs/SprintBacklog042423.xlsx
+++ b/Project2/sprint_backlogs/SprintBacklog042423.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylergrimm/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F78F2A97-B6C5-1F4E-B36A-E6771B62484A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2E2BCC-6523-1048-9DB6-37159BB0FD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,11 +115,6 @@
 So that I can run a PO election</t>
   </si>
   <si>
-    <t>Create parser for PO election header
-Integrate parser into system
-create unit tests</t>
-  </si>
-  <si>
     <t>Acceptance Criteria:
 PO election headers are read in
 Provided PO election header format is handled</t>
@@ -130,13 +125,6 @@
 So that I can run a PO election</t>
   </si>
   <si>
-    <t xml:space="preserve">Create PO ballot class
-Create parser for PO ballots
-Integrate ballot parser into system
-Create unit test for the system
-</t>
-  </si>
-  <si>
     <t>Acceptance Criteria:
 PO election ballots are read in
 Provided PO election ballot format is handled</t>
@@ -145,11 +133,6 @@
     <t>As an election official,
 I want to be able to process in multiple PO election file headers correctly
 So that I can bring in different files from different balloting locations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read only one header from a set of files for an election
-Implement unit tests
-</t>
   </si>
   <si>
     <t>Acceptance Criteria:
@@ -429,6 +412,79 @@
       </rPr>
       <t xml:space="preserve">
 Create System Testing for confirmation of function</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Create parser for PO election header
+Integrate parser into system
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+create unit tests</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Create PO ballot class
+Create parser for PO ballots
+Integrate ballot parser into system
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Create unit test for the system
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial (Body)"/>
+      </rPr>
+      <t>Read only one header from a set of files for an election</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Implement unit tests
+</t>
     </r>
   </si>
 </sst>
@@ -777,7 +833,7 @@
   </sheetPr>
   <dimension ref="B1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -801,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="34" x14ac:dyDescent="0.2">
@@ -829,7 +885,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="34" x14ac:dyDescent="0.2">
@@ -857,7 +913,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="34" x14ac:dyDescent="0.2">
@@ -886,7 +942,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="51" x14ac:dyDescent="0.2">
@@ -927,7 +983,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="51" x14ac:dyDescent="0.2">
@@ -1009,12 +1065,12 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="85" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1046,16 +1102,16 @@
     </row>
     <row r="44" spans="2:4" ht="153" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="85" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1087,16 +1143,16 @@
     </row>
     <row r="50" spans="2:4" ht="136" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="4" t="s">
-        <v>28</v>
+      <c r="D50" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1128,16 +1184,16 @@
     </row>
     <row r="56" spans="2:4" ht="119" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1169,16 +1225,16 @@
     </row>
     <row r="62" spans="2:4" ht="119" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -1199,7 +1255,7 @@
     </row>
     <row r="66" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -1210,16 +1266,16 @@
     </row>
     <row r="68" spans="2:4" ht="102" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -1251,16 +1307,16 @@
     </row>
     <row r="74" spans="2:4" ht="170" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="85" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -1281,7 +1337,7 @@
     </row>
     <row r="78" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
